--- a/Дни рожд.Избирателей.xlsx
+++ b/Дни рожд.Избирателей.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\My Python Projects\birthdays\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="1" r:id="rId1"/>
     <sheet name="Февраль" sheetId="3" r:id="rId2"/>
     <sheet name="март" sheetId="4" r:id="rId3"/>
     <sheet name="апрель" sheetId="5" r:id="rId4"/>
+    <sheet name="май" sheetId="6" r:id="rId5"/>
+    <sheet name="июнь" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Январь!$B$2:$B$159</definedName>
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1430">
   <si>
     <t>ФИО</t>
   </si>
@@ -3044,12 +3051,1278 @@
   </si>
   <si>
     <t>Дата полная</t>
+  </si>
+  <si>
+    <t>Мартинов Микола Васильович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.508</t>
+  </si>
+  <si>
+    <t>Григоренко Майя Валентинівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.509</t>
+  </si>
+  <si>
+    <t>Мурга Максим Петрович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.510</t>
+  </si>
+  <si>
+    <t>Гринько Людмила Львівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.512</t>
+  </si>
+  <si>
+    <t>Джосан Галина Анатоліївна</t>
+  </si>
+  <si>
+    <t>Коробкіна Анастасія Юріївна</t>
+  </si>
+  <si>
+    <t>Люшняк Микола Іванович</t>
+  </si>
+  <si>
+    <t>Бобак Лідія Миколаївна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пров.Шкільний,4А, кв.533 </t>
+  </si>
+  <si>
+    <t>Ніфантьєва Марія Кирилівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.12</t>
+  </si>
+  <si>
+    <t>Баранчиков Олександр Сергійович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.19-20</t>
+  </si>
+  <si>
+    <t>Баранчикова Тетяна Василівна</t>
+  </si>
+  <si>
+    <t>Глотова Тетяна Яківна</t>
+  </si>
+  <si>
+    <t>Голіч Тетяна Михайлівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.34</t>
+  </si>
+  <si>
+    <t>Шатайло Сергій Петрович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.43</t>
+  </si>
+  <si>
+    <t>Демчук Марина Володимирівна</t>
+  </si>
+  <si>
+    <t>Харченко Олена Костянтинівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.401</t>
+  </si>
+  <si>
+    <t>Шокур Тетяна Іванівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.406</t>
+  </si>
+  <si>
+    <t>Діасамідзе Денис Ельдарович</t>
+  </si>
+  <si>
+    <t>Комлєва Юлія Сергіївна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.411</t>
+  </si>
+  <si>
+    <t>Задоя Крістіна Олександрівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.417</t>
+  </si>
+  <si>
+    <t>Носуленко Галина Миколаївна</t>
+  </si>
+  <si>
+    <t>Москальова Ірина Анатоліївна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.502</t>
+  </si>
+  <si>
+    <t>Сідельнікова Алла Василівна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Васильєв Володимир Миколайович </t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1, кв.70</t>
+  </si>
+  <si>
+    <t>Чернявський Дмитро Григорович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1, кв.74</t>
+  </si>
+  <si>
+    <t>Райлян Сергій Павлович</t>
+  </si>
+  <si>
+    <t>Горячков Олександр Юрійович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1А, кв.19</t>
+  </si>
+  <si>
+    <t>Лебедєв Олег Георгійович</t>
+  </si>
+  <si>
+    <t>Мельник Андрій Віталійович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1А, кв.24</t>
+  </si>
+  <si>
+    <t>Сагайдак Олена Володимирівна</t>
+  </si>
+  <si>
+    <t>Лаврентьєв Михайло Іванович</t>
+  </si>
+  <si>
+    <t>Соколенко Ольга Вікторівна</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.12</t>
+  </si>
+  <si>
+    <t>Недвиженко Віктор Анатолійович</t>
+  </si>
+  <si>
+    <t>Возіян Ольга Василівна</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.60</t>
+  </si>
+  <si>
+    <t>Яворська Алла Володимирівна</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.65</t>
+  </si>
+  <si>
+    <t>Котова Людмила Миколаївна</t>
+  </si>
+  <si>
+    <t>Бочаров Віталій Сергійович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.69</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.68</t>
+  </si>
+  <si>
+    <t>Дмитрищук Валентина Степанівна</t>
+  </si>
+  <si>
+    <t>Черевко Марія Фомівна</t>
+  </si>
+  <si>
+    <t>Цалко Світлана Василівна</t>
+  </si>
+  <si>
+    <t>Лазарєва Кристина Миколаївна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,17, кв.44</t>
+  </si>
+  <si>
+    <t>Базарченко Ольга Євгенівна</t>
+  </si>
+  <si>
+    <t>Стеніна Лариса Віталіївна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,17, кв.51</t>
+  </si>
+  <si>
+    <t>Васильєва Ірина Вячеславівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,17, кв.54</t>
+  </si>
+  <si>
+    <t>Вітковська Марина Володимирівна</t>
+  </si>
+  <si>
+    <t>Саросек Лілія Гаврилівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,17, кв.18</t>
+  </si>
+  <si>
+    <t>Саросєк Артем Сергійович</t>
+  </si>
+  <si>
+    <t>Мануйло Ірина Володимирівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,17, кв.25</t>
+  </si>
+  <si>
+    <t>Смольнякова Ася Сергіївна</t>
+  </si>
+  <si>
+    <t>Рекечинський Віталій Олександрович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,19, кв.22</t>
+  </si>
+  <si>
+    <t>Паляниця Раїса Василівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,19, кв.5</t>
+  </si>
+  <si>
+    <t>Швець Маргарита Олексіївна</t>
+  </si>
+  <si>
+    <t>Мелека Іван Григорович</t>
+  </si>
+  <si>
+    <t>Мушегян Майя Едуардівна</t>
+  </si>
+  <si>
+    <t>Рожкован Галина Михайлівна</t>
+  </si>
+  <si>
+    <t>Переслегін Євген Володимирович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,19, кв.60</t>
+  </si>
+  <si>
+    <t>Янків Богдан Степанович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,19, кв.61</t>
+  </si>
+  <si>
+    <t>Хворостяна Віра Яковлівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,19, кв.75</t>
+  </si>
+  <si>
+    <t>Гонтарський Юрій Вікторович</t>
+  </si>
+  <si>
+    <t>Доронін Олександр Леонідович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,17, кв.4</t>
+  </si>
+  <si>
+    <t>Алєксєйцева Людмила Василівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,17, кв.9</t>
+  </si>
+  <si>
+    <t>Найдьонова Олена Володимирівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,17, кв.13</t>
+  </si>
+  <si>
+    <t>Сукачева Анастасія Вікторівна</t>
+  </si>
+  <si>
+    <t>Сквер Перемоги,5</t>
+  </si>
+  <si>
+    <t>Тейбаш Надія Дмитрівна</t>
+  </si>
+  <si>
+    <t>Сквер Перемоги,9</t>
+  </si>
+  <si>
+    <t>Сичов Володимир Олександрович</t>
+  </si>
+  <si>
+    <t>Сквер Перемоги,17</t>
+  </si>
+  <si>
+    <t>Плевицький Валерій Володимирович</t>
+  </si>
+  <si>
+    <t>Гених Артем Олексійович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1, кв.55</t>
+  </si>
+  <si>
+    <t>Рижкова Надія Олексіївна</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1, кв.57</t>
+  </si>
+  <si>
+    <t>Данильчук Галина Олександрівна</t>
+  </si>
+  <si>
+    <t>Дідик Сергій Володимирович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1, кв.22</t>
+  </si>
+  <si>
+    <t>Стецюк Тетяна Олександрівна</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1, кв.30</t>
+  </si>
+  <si>
+    <t>Сущ В'ячеслав Геннадійович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.50</t>
+  </si>
+  <si>
+    <t>Бородін Вільям Валентинович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ляхов Костянтин Володимирович </t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.4</t>
+  </si>
+  <si>
+    <t>Богданов Сергій Володимирович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.11</t>
+  </si>
+  <si>
+    <t>Фадєєв Борис Михайлович</t>
+  </si>
+  <si>
+    <t>Дахно Тетяна Миколаївна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.16</t>
+  </si>
+  <si>
+    <t>Плотников Феодосій Давидович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.35</t>
+  </si>
+  <si>
+    <t>Ковальова Ольга Станіславівна</t>
+  </si>
+  <si>
+    <t>вул.Перемоги,9</t>
+  </si>
+  <si>
+    <t>Шептієнко Валерій Анатолійович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.301</t>
+  </si>
+  <si>
+    <t>Долготер Юрій Васильович</t>
+  </si>
+  <si>
+    <t>Реул Віктор Вікторович</t>
+  </si>
+  <si>
+    <t>Зіновкін Олег Леонідович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.311</t>
+  </si>
+  <si>
+    <t>Костов Анатолій Андрійович</t>
+  </si>
+  <si>
+    <t>Корбут Валентина Миколаївна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.321</t>
+  </si>
+  <si>
+    <t>Дев'ятих Лідія Георгіївна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.323</t>
+  </si>
+  <si>
+    <t>Драган Володимир Михайлович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.210</t>
+  </si>
+  <si>
+    <t>Акамьолков Олег Костянтинович</t>
+  </si>
+  <si>
+    <t>Рашков Іван Дмитрович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.219</t>
+  </si>
+  <si>
+    <t>Сентякова Віра Валентинівна</t>
+  </si>
+  <si>
+    <t>Юрьєва Наталя Валентинівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.135</t>
+  </si>
+  <si>
+    <t>Куца Інна Миколаївна</t>
+  </si>
+  <si>
+    <t>Беззубенко Володимир Миколайович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.144</t>
+  </si>
+  <si>
+    <t>Дорошкевич Оксана Степанівна</t>
+  </si>
+  <si>
+    <t>Яковлєв Ігор Іванович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.51</t>
+  </si>
+  <si>
+    <t>Яковлєва Наталія Осипівна</t>
+  </si>
+  <si>
+    <t>Яківлев Георгій Ігорович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.51-52</t>
+  </si>
+  <si>
+    <t>Бобров Олександр Анатолійович</t>
+  </si>
+  <si>
+    <t>Забуга Володимир Іванович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.67</t>
+  </si>
+  <si>
+    <t>Науменко Микола Вікторович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.79</t>
+  </si>
+  <si>
+    <t>Закревська Жанна Анатоліївна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.87</t>
+  </si>
+  <si>
+    <t>Лепетенко Віктор Олександрович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.109-110</t>
+  </si>
+  <si>
+    <t>Петренко Микола Федорович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.120</t>
+  </si>
+  <si>
+    <t>Безь Світлана Володимирівна</t>
+  </si>
+  <si>
+    <t>Петлюк Ганна Іванівна</t>
+  </si>
+  <si>
+    <t>вул.Леніна,20А, кв.5</t>
+  </si>
+  <si>
+    <t>Зиміна Наталія Вікторівна</t>
+  </si>
+  <si>
+    <t>Чернецька Тамара Василівна</t>
+  </si>
+  <si>
+    <t>вул.Леніна,20А, кв.15</t>
+  </si>
+  <si>
+    <t>Подгорнюк Ігор Аркадійович</t>
+  </si>
+  <si>
+    <t>вул.Леніна,18А, кв.13</t>
+  </si>
+  <si>
+    <t>Кириєнко Валентина Дмитрівна</t>
+  </si>
+  <si>
+    <t>Тищук Тетяна Володимирівна</t>
+  </si>
+  <si>
+    <t>Павлишин Олег Вікторович</t>
+  </si>
+  <si>
+    <t>вул.Леніна,18А, кв.21</t>
+  </si>
+  <si>
+    <t>Бринзевич Світлана Аркадіївна</t>
+  </si>
+  <si>
+    <t>Валявська Зоя Іванівна</t>
+  </si>
+  <si>
+    <t>Рижкова Юлія Денисівна</t>
+  </si>
+  <si>
+    <t>вул.Леніна,18А, кв.36</t>
+  </si>
+  <si>
+    <t>Шпрінгель Світлана Леонідівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.108</t>
+  </si>
+  <si>
+    <t>Владиченко Вікторія Олексіївна</t>
+  </si>
+  <si>
+    <t>Агаджанова Тетяна Володимирівна</t>
+  </si>
+  <si>
+    <t>Пашков Євгеній Борисович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.146</t>
+  </si>
+  <si>
+    <t>Сейко Вікторія Сергіївна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.157</t>
+  </si>
+  <si>
+    <t>Петров Денис Олексійович</t>
+  </si>
+  <si>
+    <t>Павлов Олександр Павлович</t>
+  </si>
+  <si>
+    <t>Варбанець Євгеній Єгорович</t>
+  </si>
+  <si>
+    <t>Байдиш Людмила Михайлівна</t>
+  </si>
+  <si>
+    <t>Гоцуленко Юлія Михайлівна</t>
+  </si>
+  <si>
+    <t>Гарбовський Микола Анатолійович</t>
+  </si>
+  <si>
+    <t>Мартинюк Сергій Миколайович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.103</t>
+  </si>
+  <si>
+    <t>Цінько Ганна Вікторівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.201</t>
+  </si>
+  <si>
+    <t>Степанов Дмитро Сергійович</t>
+  </si>
+  <si>
+    <t>Ахмедов Володимир Георгійович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.101</t>
+  </si>
+  <si>
+    <t>Ахмедова Світлана Георгіївна</t>
+  </si>
+  <si>
+    <t>Паламарчук Марія Степанівна</t>
+  </si>
+  <si>
+    <t>Тіміргалєєва-Світлична Світлана Анатоліївна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.53</t>
+  </si>
+  <si>
+    <t>Тарасханова Альбіна Володимирівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.64</t>
+  </si>
+  <si>
+    <t>Литвиненко Станіслав Вікторович</t>
+  </si>
+  <si>
+    <t>Толкунова Світлана Анатоліївна</t>
+  </si>
+  <si>
+    <t>Курпан Валерія Володимирівна</t>
+  </si>
+  <si>
+    <t>Гладка Олена Миколаївна</t>
+  </si>
+  <si>
+    <t>Цибенко Валентина Миколаївна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.94</t>
+  </si>
+  <si>
+    <t>Франчук Анастасія Володимирівна</t>
+  </si>
+  <si>
+    <t>Маманович Антон Миронович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.103</t>
+  </si>
+  <si>
+    <t>Кривов Павло Вячеславович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.157</t>
+  </si>
+  <si>
+    <t>Свиридова Катерина Олександрівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.158,159</t>
+  </si>
+  <si>
+    <t>Юшковець Микола Федорович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.160-161</t>
+  </si>
+  <si>
+    <t>Тимченко Євген Григорійович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1, кв.63</t>
+  </si>
+  <si>
+    <t>Тимченко Тетяна Григорівна</t>
+  </si>
+  <si>
+    <t>Холод Ольга Анатоліївна</t>
+  </si>
+  <si>
+    <t>Погорєлова Наталія Григорівна</t>
+  </si>
+  <si>
+    <t>Старчеус Володимир Сергійович</t>
+  </si>
+  <si>
+    <t>Галактіонов Віталій Миколайович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1А, кв.11</t>
+  </si>
+  <si>
+    <t>Близнюк Ірина Костянтинівна</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1А, кв.15</t>
+  </si>
+  <si>
+    <t>Пономаренко Віталій Андрійович</t>
+  </si>
+  <si>
+    <t>Пономаренко Роман Андрійович</t>
+  </si>
+  <si>
+    <t>Копаной Тетяна Миколаївна</t>
+  </si>
+  <si>
+    <t>Черно Сергій Володимирович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.43</t>
+  </si>
+  <si>
+    <t>Ярмульська Анна Володимирівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.7</t>
+  </si>
+  <si>
+    <t>Крупельницька Ірина Станіславівна</t>
+  </si>
+  <si>
+    <t>Бризгін Сергій Валерійович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.61</t>
+  </si>
+  <si>
+    <t>Бризгіна Ірина Валеріївна</t>
+  </si>
+  <si>
+    <t>Дашко Оксана Юріївна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.66</t>
+  </si>
+  <si>
+    <t>Гнатюк Віталій Миколайович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.72</t>
+  </si>
+  <si>
+    <t>Руденко Людмила Петрівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,21, кв.74</t>
+  </si>
+  <si>
+    <t>Крученков Олексій Володимирович</t>
+  </si>
+  <si>
+    <t>Шихєєв Дмитро Владиленович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1, кв.25</t>
+  </si>
+  <si>
+    <t>Колисниченко Віктор Володимирович</t>
+  </si>
+  <si>
+    <t>Юрах Василь Васильович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1, кв.41</t>
+  </si>
+  <si>
+    <t>Сніцар Надія Петрівна</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,1, кв.45</t>
+  </si>
+  <si>
+    <t>Данильчук Геннадій Григорович</t>
+  </si>
+  <si>
+    <t>Степанюк Віктор Миколайович</t>
+  </si>
+  <si>
+    <t>Сведінська Альбіна Дмитрівна</t>
+  </si>
+  <si>
+    <t>Сквер Перемоги,6</t>
+  </si>
+  <si>
+    <t>Козлова Тамара Григорівна</t>
+  </si>
+  <si>
+    <t>Малишко Оксана Юріївна</t>
+  </si>
+  <si>
+    <t>Сидоренко Надія Пилипівна</t>
+  </si>
+  <si>
+    <t>Гаврилюк Олександр Дем'янович</t>
+  </si>
+  <si>
+    <t>Сквер Перемоги,13</t>
+  </si>
+  <si>
+    <t>Шрейдер Наталя Петрівна</t>
+  </si>
+  <si>
+    <t>Доронін Олексій Леонідович</t>
+  </si>
+  <si>
+    <t>Дороніна Ніна Миколаївна</t>
+  </si>
+  <si>
+    <t>Левицька Діана Миколаївна</t>
+  </si>
+  <si>
+    <t>Гольденвейзер Володимир Григорович</t>
+  </si>
+  <si>
+    <t>Волканова Наталя Петрівна</t>
+  </si>
+  <si>
+    <t>Сквер Перемоги,3</t>
+  </si>
+  <si>
+    <t>Кірєєва Анжеліка Вікторівна</t>
+  </si>
+  <si>
+    <t>Арефьєв Олексій Петрович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,19, кв.53</t>
+  </si>
+  <si>
+    <t>Зузлова Галина Федорівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,19, кв.54</t>
+  </si>
+  <si>
+    <t>Филиппова Валентина Артемівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,19, кв.58</t>
+  </si>
+  <si>
+    <t>Кулік Віталій Геннадійович</t>
+  </si>
+  <si>
+    <t>Луцко Тетяна Олександрівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,19, кв.68</t>
+  </si>
+  <si>
+    <t>Полуектова Лариса Володимирівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,19, кв.74</t>
+  </si>
+  <si>
+    <t>Луцишин Олександр Петрович</t>
+  </si>
+  <si>
+    <t>Луцишин Петро Олександрович</t>
+  </si>
+  <si>
+    <t>Лозка Олексій Ігорович</t>
+  </si>
+  <si>
+    <t>Абалакін Олександр Миколайович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,18, кв.5</t>
+  </si>
+  <si>
+    <t>Богинська Юлія Ігорівна</t>
+  </si>
+  <si>
+    <t>Станіславський Вадим Едуардович</t>
+  </si>
+  <si>
+    <t>Градобленська Оксана Валеріївна</t>
+  </si>
+  <si>
+    <t>Асадул Віталій Володимирович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,17, кв.36</t>
+  </si>
+  <si>
+    <t>Стрижак Владислав Павлович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,17, кв.45</t>
+  </si>
+  <si>
+    <t>Кочетова Любов Олексіївна</t>
+  </si>
+  <si>
+    <t>Бурдейна Валентина Павлівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,17, кв.48</t>
+  </si>
+  <si>
+    <t>Сидоренко Євген Вікторович</t>
+  </si>
+  <si>
+    <t>Пецик Сергій Олегович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.66</t>
+  </si>
+  <si>
+    <t>Бочаров Дмитро Сергійович</t>
+  </si>
+  <si>
+    <t>Ков'ярова Наталя Михайлівна</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.71</t>
+  </si>
+  <si>
+    <t>Фінік Микола Іванович</t>
+  </si>
+  <si>
+    <t>Кузьмін Володимир Євгенійович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.75</t>
+  </si>
+  <si>
+    <t>Мельник Генадій Степанович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.39</t>
+  </si>
+  <si>
+    <t>Соколов Євген Васильович</t>
+  </si>
+  <si>
+    <t>Кравченко Валентина Миколаївна</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.47</t>
+  </si>
+  <si>
+    <t>Похіл Надія Петрівна</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.54</t>
+  </si>
+  <si>
+    <t>Гаврилюк Максим Георгійович</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.18</t>
+  </si>
+  <si>
+    <t>Глущенко Інна Степанівна</t>
+  </si>
+  <si>
+    <t>вул.Олександрійська,3, кв.8</t>
+  </si>
+  <si>
+    <t>Кравченко Наталія Володимирівна</t>
+  </si>
+  <si>
+    <t>Мараховський Сергій Миколайович</t>
+  </si>
+  <si>
+    <t>Іванов Микола Володимирович</t>
+  </si>
+  <si>
+    <t>Кондорук Валерій Федорович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.4-5</t>
+  </si>
+  <si>
+    <t>Недялкова Марина Василівна</t>
+  </si>
+  <si>
+    <t>Фоменко Олена Вікторівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.15-16</t>
+  </si>
+  <si>
+    <t>Зубок Наталя Петрівна</t>
+  </si>
+  <si>
+    <t>Дектярьова Ганна Іванівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.38</t>
+  </si>
+  <si>
+    <t>Поплавська Ганна Едуардівна</t>
+  </si>
+  <si>
+    <t>Поплавський Едвард Едуардович</t>
+  </si>
+  <si>
+    <t>Костенюк Юрій Миколайович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.405</t>
+  </si>
+  <si>
+    <t>Шибаєв Костчнтин Ігоревич</t>
+  </si>
+  <si>
+    <t>Діасамідзе Роман Елдарович</t>
+  </si>
+  <si>
+    <t>Поян Марина Сергіївна</t>
+  </si>
+  <si>
+    <t>Петренко Василь Пилипович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.501</t>
+  </si>
+  <si>
+    <t>Борисов Іван Петрович</t>
+  </si>
+  <si>
+    <t>Карбуков Марк Миколайович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.223</t>
+  </si>
+  <si>
+    <t>Рокотянський Павло Олегович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.225</t>
+  </si>
+  <si>
+    <t>Ангел Наталія Володимирівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.233</t>
+  </si>
+  <si>
+    <t>Мурзаченко Олександр Станіславович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.306</t>
+  </si>
+  <si>
+    <t>Бушуєва Христина Василівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.315</t>
+  </si>
+  <si>
+    <t>Дев'ятих Олексій Іванович</t>
+  </si>
+  <si>
+    <t>Сабенгуз Катерина Анатоліївна</t>
+  </si>
+  <si>
+    <t>Перевознюк Олег Михайлович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.151,152</t>
+  </si>
+  <si>
+    <t>Перевознюк Таїсія Михайлівна</t>
+  </si>
+  <si>
+    <t>Свербежкина Лідія Анатоліївна</t>
+  </si>
+  <si>
+    <t>Кривова Любов Михайлівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.69</t>
+  </si>
+  <si>
+    <t>Краснянська Ірина Андріївна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, 84</t>
+  </si>
+  <si>
+    <t>Саліцький Станіслав Леонідович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.85</t>
+  </si>
+  <si>
+    <t>Репнов Олексій Валерійович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.92</t>
+  </si>
+  <si>
+    <t>Ковальчук Павло Юрійович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.100,101</t>
+  </si>
+  <si>
+    <t>Крючковська Любов Олександрівна</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.103</t>
+  </si>
+  <si>
+    <t>Ревін Сергій Валерійович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4Б, кв.112-113</t>
+  </si>
+  <si>
+    <t>Лазарєва Світлана Василівна</t>
+  </si>
+  <si>
+    <t>вул.Леніна,18А, кв.39</t>
+  </si>
+  <si>
+    <t>Філімонова Лілія Іванівна</t>
+  </si>
+  <si>
+    <t>Теплинська Олена Анатоліївна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.163</t>
+  </si>
+  <si>
+    <t>Сагайдак Феодосія Лук'янівна</t>
+  </si>
+  <si>
+    <t>вул.Леніна,18А, кв.1</t>
+  </si>
+  <si>
+    <t>Дашковська Тетяна Олександрівна</t>
+  </si>
+  <si>
+    <t>Лозанов Олександр Васильович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вул.Леніна,18А, кв.26 </t>
+  </si>
+  <si>
+    <t>Погребнюк Марина Василівна</t>
+  </si>
+  <si>
+    <t>Тимофєєв Олександр Олександрович</t>
+  </si>
+  <si>
+    <t>Білецький Дмитро Олегович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.110</t>
+  </si>
+  <si>
+    <t>Лисай Ганна Василівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.116</t>
+  </si>
+  <si>
+    <t>Беспалова Світлана Валентинівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.124</t>
+  </si>
+  <si>
+    <t>Артемова Ганна Сергіївна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.130</t>
+  </si>
+  <si>
+    <t>Шаловинська Лариса Ігнатівна</t>
+  </si>
+  <si>
+    <t>Шулянський Олександр Григорович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.143</t>
+  </si>
+  <si>
+    <t>Франковський Олексій Олександрович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.148</t>
+  </si>
+  <si>
+    <t>Свиридова Наталя Борисівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.151</t>
+  </si>
+  <si>
+    <t>Кардівар Павло Олексійович</t>
+  </si>
+  <si>
+    <t>Василєва Наталя Миколаївна</t>
+  </si>
+  <si>
+    <t>Озорніна Олена Петрівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.1</t>
+  </si>
+  <si>
+    <t>Грецька Наталя Іванівна</t>
+  </si>
+  <si>
+    <t>Грецька Тетяна Іванівна</t>
+  </si>
+  <si>
+    <t>Пустовітенко Тетяна Іванівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.15</t>
+  </si>
+  <si>
+    <t>Шулянська Ірина Анатоліївна</t>
+  </si>
+  <si>
+    <t>Ланова Олена Вікторівна</t>
+  </si>
+  <si>
+    <t>Конюшенко Сергій Анатолійович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.85</t>
+  </si>
+  <si>
+    <t>Аміросланова Маргарита Йосипівна</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.89</t>
+  </si>
+  <si>
+    <t>Агафонов Микола Миколайович</t>
+  </si>
+  <si>
+    <t>вул.Данченка,15, кв.91</t>
+  </si>
+  <si>
+    <t>Дідков Андрій Опанасович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.102</t>
+  </si>
+  <si>
+    <t>Кіранов Олексій Олександрович</t>
+  </si>
+  <si>
+    <t>пров.Шкільний,4А, кв.205</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="[$-419]d\ mmm;@"/>
@@ -3190,6 +4463,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3197,12 +4476,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3214,6 +4487,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3262,7 +4538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3297,7 +4573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7647,11 +8923,11 @@
       <c r="B1" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="13" t="s">
         <v>771</v>
       </c>
@@ -9717,7 +10993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
@@ -9730,16 +11006,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -9747,7 +11023,7 @@
       <c r="A2" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="20">
         <v>42461</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -9761,7 +11037,7 @@
       <c r="A3" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="20">
         <v>42461</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -9775,7 +11051,7 @@
       <c r="A4" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>42461</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -9789,7 +11065,7 @@
       <c r="A5" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>42462</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -9803,7 +11079,7 @@
       <c r="A6" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>42462</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -9817,7 +11093,7 @@
       <c r="A7" s="11" t="s">
         <v>974</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="20">
         <v>42462</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -9831,7 +11107,7 @@
       <c r="A8" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="20">
         <v>42462</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -9845,7 +11121,7 @@
       <c r="A9" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="20">
         <v>42462</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -9859,7 +11135,7 @@
       <c r="A10" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <v>42462</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -9873,7 +11149,7 @@
       <c r="A11" s="11" t="s">
         <v>994</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="20">
         <v>42463</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -9887,7 +11163,7 @@
       <c r="A12" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="20">
         <v>42463</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -9901,7 +11177,7 @@
       <c r="A13" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="20">
         <v>42463</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -9915,7 +11191,7 @@
       <c r="A14" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <v>42463</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -9929,7 +11205,7 @@
       <c r="A15" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="20">
         <v>42463</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -9943,7 +11219,7 @@
       <c r="A16" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="20">
         <v>42463</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -9957,7 +11233,7 @@
       <c r="A17" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="20">
         <v>42463</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -9971,7 +11247,7 @@
       <c r="A18" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="20">
         <v>42464</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -9985,7 +11261,7 @@
       <c r="A19" s="11" t="s">
         <v>970</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <v>42464</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -9999,7 +11275,7 @@
       <c r="A20" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="20">
         <v>42465</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -10013,7 +11289,7 @@
       <c r="A21" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="20">
         <v>42465</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -10027,7 +11303,7 @@
       <c r="A22" s="11" t="s">
         <v>850</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="20">
         <v>42465</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -10041,7 +11317,7 @@
       <c r="A23" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="20">
         <v>42465</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -10055,7 +11331,7 @@
       <c r="A24" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="20">
         <v>42465</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -10069,7 +11345,7 @@
       <c r="A25" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="20">
         <v>42465</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -10083,7 +11359,7 @@
       <c r="A26" s="11" t="s">
         <v>993</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="20">
         <v>42465</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -10097,7 +11373,7 @@
       <c r="A27" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="20">
         <v>42466</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -10111,7 +11387,7 @@
       <c r="A28" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="20">
         <v>42466</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -10125,7 +11401,7 @@
       <c r="A29" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="20">
         <v>42466</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -10139,7 +11415,7 @@
       <c r="A30" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="20">
         <v>42467</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -10153,7 +11429,7 @@
       <c r="A31" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="20">
         <v>42467</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -10167,7 +11443,7 @@
       <c r="A32" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="20">
         <v>42467</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -10181,7 +11457,7 @@
       <c r="A33" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="20">
         <v>42467</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -10195,7 +11471,7 @@
       <c r="A34" s="11" t="s">
         <v>982</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="20">
         <v>42467</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -10209,7 +11485,7 @@
       <c r="A35" s="11" t="s">
         <v>814</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="20">
         <v>42468</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -10223,7 +11499,7 @@
       <c r="A36" s="11" t="s">
         <v>922</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="20">
         <v>42468</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -10237,7 +11513,7 @@
       <c r="A37" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="20">
         <v>42468</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -10251,7 +11527,7 @@
       <c r="A38" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="20">
         <v>42469</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -10265,7 +11541,7 @@
       <c r="A39" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="20">
         <v>42469</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -10279,7 +11555,7 @@
       <c r="A40" s="11" t="s">
         <v>995</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="20">
         <v>42469</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -10293,7 +11569,7 @@
       <c r="A41" s="11" t="s">
         <v>900</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="20">
         <v>42469</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -10307,7 +11583,7 @@
       <c r="A42" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="20">
         <v>42469</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -10321,7 +11597,7 @@
       <c r="A43" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="20">
         <v>42470</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -10335,7 +11611,7 @@
       <c r="A44" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="20">
         <v>42471</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -10349,7 +11625,7 @@
       <c r="A45" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="20">
         <v>42472</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -10363,7 +11639,7 @@
       <c r="A46" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="20">
         <v>42472</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -10377,7 +11653,7 @@
       <c r="A47" s="11" t="s">
         <v>938</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="20">
         <v>42472</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -10391,7 +11667,7 @@
       <c r="A48" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="20">
         <v>42472</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -10405,7 +11681,7 @@
       <c r="A49" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="20">
         <v>42473</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -10419,7 +11695,7 @@
       <c r="A50" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="20">
         <v>42473</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -10433,7 +11709,7 @@
       <c r="A51" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="20">
         <v>42473</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -10447,7 +11723,7 @@
       <c r="A52" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="20">
         <v>42473</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -10461,7 +11737,7 @@
       <c r="A53" s="11" t="s">
         <v>988</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="20">
         <v>42473</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -10475,7 +11751,7 @@
       <c r="A54" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="20">
         <v>42474</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -10489,7 +11765,7 @@
       <c r="A55" s="11" t="s">
         <v>954</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="20">
         <v>42474</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -10503,7 +11779,7 @@
       <c r="A56" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="20">
         <v>42474</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -10517,7 +11793,7 @@
       <c r="A57" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="20">
         <v>42474</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -10531,7 +11807,7 @@
       <c r="A58" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="20">
         <v>42475</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -10545,7 +11821,7 @@
       <c r="A59" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="20">
         <v>42475</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -10559,7 +11835,7 @@
       <c r="A60" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="20">
         <v>42476</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -10573,7 +11849,7 @@
       <c r="A61" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="20">
         <v>42477</v>
       </c>
       <c r="C61" s="11" t="s">
@@ -10587,7 +11863,7 @@
       <c r="A62" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="20">
         <v>42477</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -10601,7 +11877,7 @@
       <c r="A63" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="20">
         <v>42477</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -10615,7 +11891,7 @@
       <c r="A64" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="20">
         <v>42478</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -10629,7 +11905,7 @@
       <c r="A65" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="20">
         <v>42479</v>
       </c>
       <c r="C65" s="11" t="s">
@@ -10643,7 +11919,7 @@
       <c r="A66" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="20">
         <v>42479</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -10657,7 +11933,7 @@
       <c r="A67" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="20">
         <v>42479</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -10671,7 +11947,7 @@
       <c r="A68" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="20">
         <v>42479</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -10685,7 +11961,7 @@
       <c r="A69" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="20">
         <v>42480</v>
       </c>
       <c r="C69" s="11" t="s">
@@ -10699,7 +11975,7 @@
       <c r="A70" s="11" t="s">
         <v>958</v>
       </c>
-      <c r="B70" s="23">
+      <c r="B70" s="20">
         <v>42480</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -10713,7 +11989,7 @@
       <c r="A71" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="B71" s="23">
+      <c r="B71" s="20">
         <v>42480</v>
       </c>
       <c r="C71" s="11" t="s">
@@ -10727,7 +12003,7 @@
       <c r="A72" s="11" t="s">
         <v>986</v>
       </c>
-      <c r="B72" s="23">
+      <c r="B72" s="20">
         <v>42480</v>
       </c>
       <c r="C72" s="11" t="s">
@@ -10741,7 +12017,7 @@
       <c r="A73" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="B73" s="23">
+      <c r="B73" s="20">
         <v>42480</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -10755,7 +12031,7 @@
       <c r="A74" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="B74" s="23">
+      <c r="B74" s="20">
         <v>42481</v>
       </c>
       <c r="C74" s="11" t="s">
@@ -10769,7 +12045,7 @@
       <c r="A75" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="B75" s="23">
+      <c r="B75" s="20">
         <v>42481</v>
       </c>
       <c r="C75" s="11" t="s">
@@ -10783,7 +12059,7 @@
       <c r="A76" s="11" t="s">
         <v>959</v>
       </c>
-      <c r="B76" s="23">
+      <c r="B76" s="20">
         <v>42481</v>
       </c>
       <c r="C76" s="11" t="s">
@@ -10797,7 +12073,7 @@
       <c r="A77" s="11" t="s">
         <v>1001</v>
       </c>
-      <c r="B77" s="23">
+      <c r="B77" s="20">
         <v>42481</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -10811,7 +12087,7 @@
       <c r="A78" s="11" t="s">
         <v>957</v>
       </c>
-      <c r="B78" s="23">
+      <c r="B78" s="20">
         <v>42481</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -10825,7 +12101,7 @@
       <c r="A79" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="B79" s="23">
+      <c r="B79" s="20">
         <v>42481</v>
       </c>
       <c r="C79" s="11" t="s">
@@ -10839,7 +12115,7 @@
       <c r="A80" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="B80" s="23">
+      <c r="B80" s="20">
         <v>42481</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -10853,7 +12129,7 @@
       <c r="A81" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="B81" s="23">
+      <c r="B81" s="20">
         <v>42481</v>
       </c>
       <c r="C81" s="11" t="s">
@@ -10867,7 +12143,7 @@
       <c r="A82" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="B82" s="23">
+      <c r="B82" s="20">
         <v>42482</v>
       </c>
       <c r="C82" s="11" t="s">
@@ -10881,7 +12157,7 @@
       <c r="A83" s="11" t="s">
         <v>924</v>
       </c>
-      <c r="B83" s="23">
+      <c r="B83" s="20">
         <v>42482</v>
       </c>
       <c r="C83" s="11" t="s">
@@ -10895,7 +12171,7 @@
       <c r="A84" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="B84" s="23">
+      <c r="B84" s="20">
         <v>42482</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -10909,7 +12185,7 @@
       <c r="A85" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="B85" s="23">
+      <c r="B85" s="20">
         <v>42482</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -10923,7 +12199,7 @@
       <c r="A86" s="11" t="s">
         <v>1003</v>
       </c>
-      <c r="B86" s="23">
+      <c r="B86" s="20">
         <v>42482</v>
       </c>
       <c r="C86" s="11" t="s">
@@ -10937,7 +12213,7 @@
       <c r="A87" s="11" t="s">
         <v>874</v>
       </c>
-      <c r="B87" s="23">
+      <c r="B87" s="20">
         <v>42483</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -10951,7 +12227,7 @@
       <c r="A88" s="11" t="s">
         <v>872</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" s="20">
         <v>42483</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -10965,7 +12241,7 @@
       <c r="A89" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B89" s="20">
         <v>42483</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -10979,7 +12255,7 @@
       <c r="A90" s="11" t="s">
         <v>992</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B90" s="20">
         <v>42483</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -10993,7 +12269,7 @@
       <c r="A91" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="B91" s="23">
+      <c r="B91" s="20">
         <v>42484</v>
       </c>
       <c r="C91" s="11" t="s">
@@ -11007,7 +12283,7 @@
       <c r="A92" s="11" t="s">
         <v>950</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" s="20">
         <v>42484</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -11021,7 +12297,7 @@
       <c r="A93" s="11" t="s">
         <v>860</v>
       </c>
-      <c r="B93" s="23">
+      <c r="B93" s="20">
         <v>42484</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -11035,7 +12311,7 @@
       <c r="A94" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="B94" s="23">
+      <c r="B94" s="20">
         <v>42484</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -11049,7 +12325,7 @@
       <c r="A95" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="B95" s="23">
+      <c r="B95" s="20">
         <v>42484</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -11063,7 +12339,7 @@
       <c r="A96" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="20">
         <v>42484</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -11077,7 +12353,7 @@
       <c r="A97" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="B97" s="23">
+      <c r="B97" s="20">
         <v>42485</v>
       </c>
       <c r="C97" s="11" t="s">
@@ -11091,7 +12367,7 @@
       <c r="A98" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="B98" s="23">
+      <c r="B98" s="20">
         <v>42485</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -11105,7 +12381,7 @@
       <c r="A99" s="11" t="s">
         <v>951</v>
       </c>
-      <c r="B99" s="23">
+      <c r="B99" s="20">
         <v>42485</v>
       </c>
       <c r="C99" s="11" t="s">
@@ -11119,7 +12395,7 @@
       <c r="A100" s="11" t="s">
         <v>980</v>
       </c>
-      <c r="B100" s="23">
+      <c r="B100" s="20">
         <v>42485</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -11133,7 +12409,7 @@
       <c r="A101" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="B101" s="23">
+      <c r="B101" s="20">
         <v>42485</v>
       </c>
       <c r="C101" s="11" t="s">
@@ -11147,7 +12423,7 @@
       <c r="A102" s="11" t="s">
         <v>961</v>
       </c>
-      <c r="B102" s="23">
+      <c r="B102" s="20">
         <v>42486</v>
       </c>
       <c r="C102" s="11" t="s">
@@ -11161,7 +12437,7 @@
       <c r="A103" s="11" t="s">
         <v>945</v>
       </c>
-      <c r="B103" s="23">
+      <c r="B103" s="20">
         <v>42486</v>
       </c>
       <c r="C103" s="11" t="s">
@@ -11175,7 +12451,7 @@
       <c r="A104" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="B104" s="23">
+      <c r="B104" s="20">
         <v>42486</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -11189,7 +12465,7 @@
       <c r="A105" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="B105" s="23">
+      <c r="B105" s="20">
         <v>42486</v>
       </c>
       <c r="C105" s="11" t="s">
@@ -11203,7 +12479,7 @@
       <c r="A106" s="11" t="s">
         <v>984</v>
       </c>
-      <c r="B106" s="23">
+      <c r="B106" s="20">
         <v>42486</v>
       </c>
       <c r="C106" s="11" t="s">
@@ -11217,7 +12493,7 @@
       <c r="A107" s="11" t="s">
         <v>989</v>
       </c>
-      <c r="B107" s="23">
+      <c r="B107" s="20">
         <v>42487</v>
       </c>
       <c r="C107" s="11" t="s">
@@ -11231,7 +12507,7 @@
       <c r="A108" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="B108" s="23">
+      <c r="B108" s="20">
         <v>42487</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -11245,7 +12521,7 @@
       <c r="A109" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="B109" s="23">
+      <c r="B109" s="20">
         <v>42487</v>
       </c>
       <c r="C109" s="11" t="s">
@@ -11259,7 +12535,7 @@
       <c r="A110" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="B110" s="23">
+      <c r="B110" s="20">
         <v>42487</v>
       </c>
       <c r="C110" s="11" t="s">
@@ -11273,7 +12549,7 @@
       <c r="A111" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="B111" s="23">
+      <c r="B111" s="20">
         <v>42487</v>
       </c>
       <c r="C111" s="11" t="s">
@@ -11287,7 +12563,7 @@
       <c r="A112" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="B112" s="23">
+      <c r="B112" s="20">
         <v>42487</v>
       </c>
       <c r="C112" s="11" t="s">
@@ -11301,7 +12577,7 @@
       <c r="A113" s="11" t="s">
         <v>972</v>
       </c>
-      <c r="B113" s="23">
+      <c r="B113" s="20">
         <v>42487</v>
       </c>
       <c r="C113" s="11" t="s">
@@ -11315,7 +12591,7 @@
       <c r="A114" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="B114" s="23">
+      <c r="B114" s="20">
         <v>42488</v>
       </c>
       <c r="C114" s="11" t="s">
@@ -11329,7 +12605,7 @@
       <c r="A115" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="B115" s="23">
+      <c r="B115" s="20">
         <v>42488</v>
       </c>
       <c r="C115" s="11" t="s">
@@ -11343,7 +12619,7 @@
       <c r="A116" s="11" t="s">
         <v>997</v>
       </c>
-      <c r="B116" s="23">
+      <c r="B116" s="20">
         <v>42488</v>
       </c>
       <c r="C116" s="11" t="s">
@@ -11357,7 +12633,7 @@
       <c r="A117" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="B117" s="23">
+      <c r="B117" s="20">
         <v>42489</v>
       </c>
       <c r="C117" s="11" t="s">
@@ -11371,7 +12647,7 @@
       <c r="A118" s="11" t="s">
         <v>859</v>
       </c>
-      <c r="B118" s="23">
+      <c r="B118" s="20">
         <v>42489</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -11385,7 +12661,7 @@
       <c r="A119" s="11" t="s">
         <v>963</v>
       </c>
-      <c r="B119" s="23">
+      <c r="B119" s="20">
         <v>42489</v>
       </c>
       <c r="C119" s="11" t="s">
@@ -11399,7 +12675,7 @@
       <c r="A120" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="B120" s="23">
+      <c r="B120" s="20">
         <v>42489</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -11413,7 +12689,7 @@
       <c r="A121" s="11" t="s">
         <v>936</v>
       </c>
-      <c r="B121" s="23">
+      <c r="B121" s="20">
         <v>42490</v>
       </c>
       <c r="C121" s="11" t="s">
@@ -11427,7 +12703,7 @@
       <c r="A122" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="B122" s="23">
+      <c r="B122" s="20">
         <v>42490</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -11441,7 +12717,7 @@
       <c r="A123" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="B123" s="23">
+      <c r="B123" s="20">
         <v>42490</v>
       </c>
       <c r="C123" s="11" t="s">
@@ -11450,6 +12726,3441 @@
       <c r="D123" s="18">
         <v>30071</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B2" s="18">
+        <v>22056</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B3" s="18">
+        <v>32280</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B4" s="18">
+        <v>33378</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B5" s="18">
+        <v>20583</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B6" s="18">
+        <v>24248</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B7" s="18">
+        <v>33727</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B8" s="18">
+        <v>23134</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B9" s="18">
+        <v>15474</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B10" s="18">
+        <v>11814</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B11" s="18">
+        <v>33379</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B12" s="18">
+        <v>20221</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B13" s="18">
+        <v>19855</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B14" s="18">
+        <v>29721</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B15" s="18">
+        <v>30087</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B16" s="18">
+        <v>28622</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B17" s="18">
+        <v>32644</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B18" s="18">
+        <v>23133</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B19" s="18">
+        <v>33006</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B20" s="18">
+        <v>34110</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B21" s="18">
+        <v>31559</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B22" s="18">
+        <v>22778</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B23" s="18">
+        <v>24984</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B24" s="18">
+        <v>23514</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B25" s="18">
+        <v>33735</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B26" s="18">
+        <v>27168</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B27" s="18">
+        <v>31539</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B28" s="18">
+        <v>23161</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B29" s="18">
+        <v>25349</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B30" s="18">
+        <v>27911</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B31" s="18">
+        <v>28979</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B32" s="18">
+        <v>20227</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B33" s="18">
+        <v>30816</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B34" s="18">
+        <v>19143</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B35" s="18">
+        <v>27175</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B36" s="18">
+        <v>27897</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B37" s="18">
+        <v>20947</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B38" s="18">
+        <v>32286</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B39" s="18">
+        <v>11832</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B40" s="18">
+        <v>14380</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B41" s="18">
+        <v>25334</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B42" s="18">
+        <v>33366</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B43" s="18">
+        <v>33010</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B44" s="18">
+        <v>26055</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B45" s="18">
+        <v>30073</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B46" s="18">
+        <v>25339</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B47" s="18">
+        <v>23134</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B48" s="18">
+        <v>32291</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B49" s="18">
+        <v>27897</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B50" s="18">
+        <v>31902</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B51" s="18">
+        <v>29736</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B52" s="18">
+        <v>15486</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B53" s="18">
+        <v>33361</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B54" s="18">
+        <v>23528</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B55" s="18">
+        <v>31907</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B56" s="18">
+        <v>20224</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B57" s="18">
+        <v>31903</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B58" s="18">
+        <v>15839</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B59" s="18">
+        <v>20967</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B60" s="18">
+        <v>33734</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B61" s="18">
+        <v>21681</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B62" s="18">
+        <v>16951</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B63" s="18">
+        <v>28997</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B64" s="18">
+        <v>30816</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B65" s="18">
+        <v>31555</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B66" s="18">
+        <v>29718</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B67" s="18">
+        <v>20593</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B68" s="18">
+        <v>33745</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B69" s="18">
+        <v>12911</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B70" s="18">
+        <v>15842</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B71" s="18">
+        <v>24611</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B72" s="18">
+        <v>21314</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B73" s="18">
+        <v>31901</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B74" s="18">
+        <v>22794</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B75" s="18">
+        <v>22066</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B76" s="18">
+        <v>27180</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B77" s="18">
+        <v>16567</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B78" s="18">
+        <v>22042</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B79" s="18">
+        <v>11474</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B80" s="18">
+        <v>27903</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B81" s="18">
+        <v>25701</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B82" s="18">
+        <v>30808</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B83" s="18">
+        <v>22795</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B84" s="18">
+        <v>27519</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B85" s="18">
+        <v>28978</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B86" s="18">
+        <v>25330</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B87" s="18">
+        <v>22778</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B88" s="18">
+        <v>23154</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B89" s="18">
+        <v>33730</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B90" s="18">
+        <v>30824</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B91" s="18">
+        <v>22051</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B92" s="18">
+        <v>21324</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B93" s="18">
+        <v>23512</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B94" s="18">
+        <v>22063</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B95" s="18">
+        <v>30830</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B96" s="18">
+        <v>18753</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B97" s="18">
+        <v>18400</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B98" s="18">
+        <v>31177</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B99" s="18">
+        <v>29005</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B100" s="18">
+        <v>18049</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B101" s="18">
+        <v>29729</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B102" s="18">
+        <v>25333</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B103" s="18">
+        <v>31559</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B104" s="18">
+        <v>20235</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B105" s="18">
+        <v>26066</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B106" s="18">
+        <v>14029</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B107" s="18">
+        <v>25337</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B108" s="18">
+        <v>15102</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B109" s="18">
+        <v>21318</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B110" s="18">
+        <v>20584</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B111" s="18">
+        <v>27887</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B112" s="18">
+        <v>29719</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B113" s="18">
+        <v>22789</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B114" s="18">
+        <v>13636</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B115" s="18">
+        <v>14021</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B116" s="18">
+        <v>24247</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B117" s="18">
+        <v>30102</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B118" s="18">
+        <v>23892</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B119" s="18">
+        <v>30440</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B120" s="18">
+        <v>31175</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B121" s="18">
+        <v>33007</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B122" s="18">
+        <v>16945</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B123" s="18">
+        <v>33747</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B124" s="18">
+        <v>31548</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B125" s="18">
+        <v>33385</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B126" s="18">
+        <v>34477</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B127" s="18">
+        <v>30821</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B128" s="18">
+        <v>33373</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B129" s="18">
+        <v>33374</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B130" s="18">
+        <v>23523</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B131" s="18">
+        <v>24607</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B132" s="18">
+        <v>21683</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B133" s="18">
+        <v>23154</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B134" s="18">
+        <v>20584</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B135" s="18">
+        <v>30825</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B136" s="18">
+        <v>33012</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B137" s="18">
+        <v>31910</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B138" s="18">
+        <v>31914</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B139" s="18">
+        <v>20605</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B140" s="18">
+        <v>31917</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B141" s="18">
+        <v>15481</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B142" s="18">
+        <v>29372</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B143" s="18">
+        <v>31906</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B144" s="18">
+        <v>21692</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C200"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B2" s="18">
+        <v>23915</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B3" s="18">
+        <v>21705</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B4" s="18">
+        <v>29755</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B5" s="18">
+        <v>14768</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B6" s="18">
+        <v>18074</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B7" s="18">
+        <v>28295</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B8" s="18">
+        <v>32664</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B9" s="18">
+        <v>30496</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B10" s="18">
+        <v>30843</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B11" s="18">
+        <v>22800</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B12" s="18">
+        <v>24629</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B13" s="18">
+        <v>30860</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B14" s="18">
+        <v>28655</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B15" s="18">
+        <v>29016</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B16" s="18">
+        <v>31588</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B17" s="18">
+        <v>25007</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B18" s="18">
+        <v>27552</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B19" s="18">
+        <v>14779</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B20" s="18">
+        <v>32674</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B21" s="18">
+        <v>22806</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B22" s="18">
+        <v>22823</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B23" s="18">
+        <v>29391</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B24" s="18">
+        <v>15873</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B25" s="18">
+        <v>23552</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B26" s="18">
+        <v>19515</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B27" s="18">
+        <v>11490</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B28" s="18">
+        <v>20266</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B29" s="18">
+        <v>33781</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B30" s="18">
+        <v>12955</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B31" s="18">
+        <v>19900</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B32" s="18">
+        <v>23914</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B33" s="18">
+        <v>24278</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B34" s="18">
+        <v>21724</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B35" s="18">
+        <v>30838</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B36" s="18">
+        <v>27932</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B37" s="18">
+        <v>24273</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B38" s="18">
+        <v>24269</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B39" s="18">
+        <v>11129</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B40" s="18">
+        <v>9313</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B41" s="18">
+        <v>11500</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B42" s="18">
+        <v>22452</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B43" s="18">
+        <v>25361</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B44" s="18">
+        <v>20991</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B45" s="18">
+        <v>22437</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B46" s="18">
+        <v>12581</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B47" s="18">
+        <v>31593</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B48" s="18">
+        <v>29011</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B49" s="18">
+        <v>35240</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B50" s="18">
+        <v>31582</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B51" s="18">
+        <v>27210</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B52" s="18">
+        <v>22093</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B53" s="18">
+        <v>26114</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B54" s="18">
+        <v>19527</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B55" s="18">
+        <v>28643</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B56" s="18">
+        <v>24272</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B57" s="18">
+        <v>23554</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B58" s="18">
+        <v>31934</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B59" s="18">
+        <v>32685</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B60" s="18">
+        <v>19885</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B61" s="18">
+        <v>28645</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B62" s="18">
+        <v>28663</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B63" s="18">
+        <v>31943</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B64" s="18">
+        <v>15129</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B65" s="18">
+        <v>15505</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B66" s="18">
+        <v>31225</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B67" s="18">
+        <v>14416</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B68" s="18">
+        <v>28670</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B69" s="18">
+        <v>34146</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B70" s="18">
+        <v>22078</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B71" s="18">
+        <v>20616</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B72" s="18">
+        <v>22455</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B73" s="18">
+        <v>32321</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B74" s="18">
+        <v>29026</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B75" s="18">
+        <v>17696</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B76" s="18">
+        <v>30492</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B77" s="18">
+        <v>31582</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B78" s="18">
+        <v>22807</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B79" s="18">
+        <v>34853</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B80" s="18">
+        <v>32322</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B81" s="18">
+        <v>23184</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B82" s="18">
+        <v>24631</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B83" s="18">
+        <v>24275</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B84" s="18">
+        <v>23558</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B85" s="18">
+        <v>31952</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B86" s="18">
+        <v>20633</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B87" s="18">
+        <v>33778</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B88" s="18">
+        <v>33418</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B89" s="18">
+        <v>30468</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B90" s="18">
+        <v>31942</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B91" s="18">
+        <v>33416</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B92" s="18">
+        <v>31207</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B93" s="18">
+        <v>21344</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B94" s="18">
+        <v>19167</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B95" s="18">
+        <v>32300</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B96" s="18">
+        <v>25013</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B97" s="18">
+        <v>31593</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B98" s="18">
+        <v>30491</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B99" s="18">
+        <v>20988</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B100" s="18">
+        <v>31576</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B101" s="18">
+        <v>26819</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B102" s="18">
+        <v>14399</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B103" s="18">
+        <v>28299</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B104" s="18">
+        <v>8935</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B105" s="18">
+        <v>30835</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B106" s="18">
+        <v>21365</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B107" s="18">
+        <v>26835</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B108" s="18">
+        <v>35598</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B109" s="18">
+        <v>31223</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B110" s="18">
+        <v>31939</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B111" s="18">
+        <v>26452</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B112" s="18">
+        <v>31948</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B113" s="18">
+        <v>22819</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B114" s="18">
+        <v>21000</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B115" s="18">
+        <v>35592</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B116" s="18">
+        <v>23188</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B117" s="18">
+        <v>22091</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B118" s="18">
+        <v>23899</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B119" s="18">
+        <v>21714</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B120" s="18">
+        <v>30487</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B121" s="18">
+        <v>31944</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B122" s="18">
+        <v>24280</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B123" s="18">
+        <v>30855</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B124" s="18">
+        <v>26822</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B125" s="18">
+        <v>22435</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B126" s="18">
+        <v>33026</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B127" s="18">
+        <v>25382</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B128" s="18">
+        <v>22460</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B129" s="18">
+        <v>30130</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
